--- a/book.xlsx
+++ b/book.xlsx
@@ -518,10 +518,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>6035512002</v>
+        <v>6135512053</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -593,6 +596,9 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
@@ -709,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -722,8 +728,11 @@
       <c r="D17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -737,7 +746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -751,7 +760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -765,7 +774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -779,7 +788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -792,8 +801,11 @@
       <c r="D22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -806,8 +818,11 @@
       <c r="D23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -821,7 +836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -835,7 +850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -849,7 +864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -863,7 +878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -877,7 +892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -891,7 +906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -905,7 +920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -919,7 +934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>

--- a/book.xlsx
+++ b/book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>no</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Warinthon</t>
+  </si>
+  <si>
+    <t>Alwanee</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,6 +465,9 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
@@ -495,6 +501,20 @@
       </c>
       <c r="E6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1236547895</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -28,22 +28,22 @@
     <t>score</t>
   </si>
   <si>
+    <t>Sufian</t>
+  </si>
+  <si>
+    <t>Tannut</t>
+  </si>
+  <si>
     <t>Ruchikon</t>
   </si>
   <si>
-    <t>Tannut</t>
-  </si>
-  <si>
-    <t>Sufian</t>
-  </si>
-  <si>
     <t>Pattanun</t>
   </si>
   <si>
+    <t>Alwanee</t>
+  </si>
+  <si>
     <t>Warinthon</t>
-  </si>
-  <si>
-    <t>Alwanee</t>
   </si>
 </sst>
 </file>
@@ -429,11 +429,14 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6135512005</v>
+        <v>6135512028</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
@@ -447,9 +450,6 @@
       </c>
       <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6135512028</v>
+        <v>6135512005</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -482,9 +482,6 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
@@ -494,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>6135512053</v>
+        <v>1236547895</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -511,10 +508,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1236547895</v>
+        <v>6135512053</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -451,6 +451,9 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
@@ -482,6 +485,9 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
@@ -512,9 +518,6 @@
       </c>
       <c r="D7" t="s">
         <v>9</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>no</t>
   </si>
@@ -28,19 +28,16 @@
     <t>score</t>
   </si>
   <si>
+    <t>Pattanun</t>
+  </si>
+  <si>
+    <t>Ruchikon</t>
+  </si>
+  <si>
     <t>Sufian</t>
   </si>
   <si>
     <t>Tannut</t>
-  </si>
-  <si>
-    <t>Ruchikon</t>
-  </si>
-  <si>
-    <t>Pattanun</t>
-  </si>
-  <si>
-    <t>Alwanee</t>
   </si>
   <si>
     <t>Warinthon</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6135512028</v>
+        <v>6135512002</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -446,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>6135512016</v>
+        <v>6135512005</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -463,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6135512005</v>
+        <v>6135512028</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -480,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6135512002</v>
+        <v>6135512016</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -497,27 +494,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1236547895</v>
+        <v>6135512053</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6135512053</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -431,9 +431,6 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
@@ -448,9 +445,6 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
@@ -465,9 +459,6 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
@@ -481,9 +472,6 @@
       </c>
       <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
